--- a/medicine/Psychotrope/Manicle_(AOC)/Manicle_(AOC).xlsx
+++ b/medicine/Psychotrope/Manicle_(AOC)/Manicle_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le manicle[N 1], ou bugey manicle, est un vin français, produit sur les communes de Cheignieu-la-Balme et Pugieu, dans le département de l'Ain. Il s'agit d'une dénomination géographique au sein de l'appellation d'origine contrôlée bugey. La mention sur les étiquettes doit être : « Bugey Manicle »[2].
+Le manicle[N 1], ou bugey manicle, est un vin français, produit sur les communes de Cheignieu-la-Balme et Pugieu, dans le département de l'Ain. Il s'agit d'une dénomination géographique au sein de l'appellation d'origine contrôlée bugey. La mention sur les étiquettes doit être : « Bugey Manicle ».
 </t>
         </is>
       </c>
@@ -512,14 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le développement du vignoble date des moines de l'abbaye de Saint-Sulpice à Thézillieu.
-Au tout début du XIXe siècle, une partie de cette vigne a appartenu à Brillat-Savarin qui y possédait son grangeon (d'où la création de la « Confrérie du Grangeon de Manicle » en 2000[3]).
-Le vignoble du Bugey était particulièrement développé, produisant pour les marchés voisins reliés par la voie ferrée Lyon - Genève : le manicle était produit à la fin du XIXe siècle sur une surface de 65 hectares[4]. Le phylloxéra a quasiment fait disparaître le vignoble à la fin du XIXe siècle. La renaissance se fit très lentement, sur de petites surfaces isolées les unes des autres, avec des plans greffés, en replantant avec des cépages provenant de Bourgogne.
-D'abord classé VDQS en 1958, il bénéficie, depuis le 28 mai 2009[5] (décret du 20 octobre 2009[6]), d'une reconnaissance au sein de l'AOC bugey avec dénomination géographique « manicle »[7].
-Étymologie
-L'origine du mot manicle est à rapprocher du nom d'un outil, la maniclette.
+Au tout début du XIXe siècle, une partie de cette vigne a appartenu à Brillat-Savarin qui y possédait son grangeon (d'où la création de la « Confrérie du Grangeon de Manicle » en 2000).
+Le vignoble du Bugey était particulièrement développé, produisant pour les marchés voisins reliés par la voie ferrée Lyon - Genève : le manicle était produit à la fin du XIXe siècle sur une surface de 65 hectares. Le phylloxéra a quasiment fait disparaître le vignoble à la fin du XIXe siècle. La renaissance se fit très lentement, sur de petites surfaces isolées les unes des autres, avec des plans greffés, en replantant avec des cépages provenant de Bourgogne.
+D'abord classé VDQS en 1958, il bénéficie, depuis le 28 mai 2009 (décret du 20 octobre 2009), d'une reconnaissance au sein de l'AOC bugey avec dénomination géographique « manicle ».
 </t>
         </is>
       </c>
@@ -545,19 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le manicle est produit en France, dans la région Auvergne-Rhône-Alpes, plus précisément à l'extrémité sud-est du département de l'Ain, à 12 kilomètres au nord-ouest de la ville de Belley.
-Le lieu-dit Manicle est un coteau orienté au sud, sur la commune de Cheignieu-la-Balme, à la limite avec sa voisine Pugieu[N 3].
-Géologie et orographie
-La vigne est plantée sur un sol argilo-calcaire, parsemé d’éboulis pierreux du post-Würm, provenant de l'érosion de la falaise. Cette dernière, appelée « roches du Manicle » ou falaises de Pugieu, est composée de calcaires du Crétacé (Barrémo-Aptien à faciès urgonien), avec au sommet des calcaires du Jurassique (plus précisément du Kimméridgien supérieur)[8],[9].
-Climatologie
-Le Bugey connait des étés chauds propre à un climat semi-continental, propices à la culture de la vigne. Les hivers sont marqués par l'influence montagnarde, à peine adoucis par les dernières influences océaniques.
-La station météo d'Ambérieu (à 250 mètres d'altitude) est la plus proche de l'aire de la dénomination. Ses valeurs climatiques de 1961 à 1990 sont : 
-Source : www.infoclimat.fr : Ambérieu (1961-1990)[1].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine du mot manicle est à rapprocher du nom d'un outil, la maniclette.
 </t>
         </is>
       </c>
@@ -583,18 +594,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vignoble</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Le Manicle (le lieu-dit) est situé au pied d’une falaise s'appelant les « Rochers de Manicle », au-dessus de la rivière Furans (un affluent du Rhône). L'aire cultivée se situe entre 300 et 350 mètres d'altitude, la falaise la surplombant avec ses 520 mètres d'altitude ; cette falaise emmagasine la chaleur du Soleil le jour, et la restitue la nuit.
-Encépagement
-L'aire de production est composée de huit hectares[10], uniquement plantés en pinot noir N pour les rouges et en chardonnay B pour les blancs.
-Les deux cépages proviennent de la Bourgogne voisine. Ils sont très qualitatifs, adaptés au sol calcaire et au climat continental (hiver froid et sec, été chaud).
-Rendements
-La production est de 460 à 500 hectolitres par an, avec des rendements légaux fixés entre 53 et 61 hectolitres par hectare pour les rouges (au lieu de 60 à 68 pour les autres bugey rouges) et de 63 à 69 pour les blancs (au lieu de 67 à 74 pour les autres bugey blancs).
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le manicle est produit en France, dans la région Auvergne-Rhône-Alpes, plus précisément à l'extrémité sud-est du département de l'Ain, à 12 kilomètres au nord-ouest de la ville de Belley.
+Le lieu-dit Manicle est un coteau orienté au sud, sur la commune de Cheignieu-la-Balme, à la limite avec sa voisine Pugieu[N 3].
 </t>
         </is>
       </c>
@@ -620,19 +628,282 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Géologie et orographie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vigne est plantée sur un sol argilo-calcaire, parsemé d’éboulis pierreux du post-Würm, provenant de l'érosion de la falaise. Cette dernière, appelée « roches du Manicle » ou falaises de Pugieu, est composée de calcaires du Crétacé (Barrémo-Aptien à faciès urgonien), avec au sommet des calcaires du Jurassique (plus précisément du Kimméridgien supérieur),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Manicle_(AOC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Manicle_(AOC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bugey connait des étés chauds propre à un climat semi-continental, propices à la culture de la vigne. Les hivers sont marqués par l'influence montagnarde, à peine adoucis par les dernières influences océaniques.
+La station météo d'Ambérieu (à 250 mètres d'altitude) est la plus proche de l'aire de la dénomination. Ses valeurs climatiques de 1961 à 1990 sont : 
+Source : www.infoclimat.fr : Ambérieu (1961-1990).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Manicle_(AOC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Manicle_(AOC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Manicle (le lieu-dit) est situé au pied d’une falaise s'appelant les « Rochers de Manicle », au-dessus de la rivière Furans (un affluent du Rhône). L'aire cultivée se situe entre 300 et 350 mètres d'altitude, la falaise la surplombant avec ses 520 mètres d'altitude ; cette falaise emmagasine la chaleur du Soleil le jour, et la restitue la nuit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Manicle_(AOC)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Manicle_(AOC)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de production est composée de huit hectares, uniquement plantés en pinot noir N pour les rouges et en chardonnay B pour les blancs.
+Les deux cépages proviennent de la Bourgogne voisine. Ils sont très qualitatifs, adaptés au sol calcaire et au climat continental (hiver froid et sec, été chaud).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Manicle_(AOC)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Manicle_(AOC)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rendements</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production est de 460 à 500 hectolitres par an, avec des rendements légaux fixés entre 53 et 61 hectolitres par hectare pour les rouges (au lieu de 60 à 68 pour les autres bugey rouges) et de 63 à 69 pour les blancs (au lieu de 67 à 74 pour les autres bugey blancs).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Manicle_(AOC)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Manicle_(AOC)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Vins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Titres alcoométriques
-Le titre alcoométrique minimal autorisé par le décret est de 10 % vol. pour les rouges comme pour les blancs, avec un maximum à 13 % vol.
-Gastronomie
-Le manicle rouge a une robe d'un rouge très clair, sa bouche est acidulée et fruitée (fruits rouges). S'il est rehaussé par un élevage en fûts de chêne, il peut afficher un caractère plus puissant et plus structuré.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Titres alcoométriques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le titre alcoométrique minimal autorisé par le décret est de 10 % vol. pour les rouges comme pour les blancs, avec un maximum à 13 % vol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Manicle_(AOC)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Manicle_(AOC)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Gastronomie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le manicle rouge a une robe d'un rouge très clair, sa bouche est acidulée et fruitée (fruits rouges). S'il est rehaussé par un élevage en fûts de chêne, il peut afficher un caractère plus puissant et plus structuré.
 Il est suffisamment acide pour vieillir quelques années (environ 3 à 5 ans).
 Le manicle blanc est quant à lui un vin relativement puissant qui présente de la structure, du gras et un bouquet aromatique complexe.
-Liste de producteurs
-La surface plantée est tellement petite qu'il n'y a que très peu de producteurs, à savoir :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Manicle_(AOC)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Manicle_(AOC)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Liste de producteurs</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>La surface plantée est tellement petite qu'il n'y a que très peu de producteurs, à savoir :
 Caveau Bugiste (GAEC), à Vongnes[N 4] ;
 Château des Eclaz (Jean-Pierre Gros et Michel Roussille), à Cheignieu-la-Balme ;
 Domaine de Pacotille (François Galeyrand), à Andert-et-Condon ;
